--- a/src/testdata/PriceMatchWiley.xlsx
+++ b/src/testdata/PriceMatchWiley.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>url</t>
   </si>
@@ -32,7 +32,154 @@
     <t>retail_price</t>
   </si>
   <si>
-    <t>http://www.wiley.com/en-us/Handbook+of+Proteins%3A+Structure%2C+Function+and+Methods%2C+2+Volume+Set-p-9780470060988</t>
+    <t>http://www.wiley.com/en-us/A+Companion+to+20th+Century+America-p-9780470998526</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Blackwell+Guide+to+Philosophy+of+Mind-p-9780470998755</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/A+Companion+to+Britain+in+the+Later+Middle+Ages-p-9780470998779</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/A+Companion+to+Roman+Britain-p-9780470998854</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/A+Companion+to+Eighteenth+Century+Britain-p-9780470998878</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/A+Companion+to+Stuart+Britain-p-9780470998892</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Blackwell+Companion+to+Social+Movements-p-9780470999097</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Scale+and+Geographic+Inquiry%3A+Nature%2C+Society%2C+and+Method-p-9780470999158</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Problem+of+Evil-p-9780745617954</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Gorbachev%27s+Gamble%3A+Soviet+Foreign+Policy+and+the+End+of+the+Cold+War-p-9780745655321</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Media+and+the+City%3A+Cosmopolitanism+and+Difference-p-9780745655406</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Clint+Eastwood%27s+America-p-9780745656489</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/International+Security%3A+The+Contemporary+Agenda%2C+2nd+Edition-p-9780745656885</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Reflective+Practice-p-9780745656946</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Philosophy+of+Religion%3A+A+Critical+Introduction%2C+2nd+Edition-p-9780745656991</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Party+and+Society-p-9780745659848</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Theories+of+Multiculturalism%3A+An+Introduction-p-9780745673622</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Going+Viral-p-9780745675480</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Webcam-p-9780745679525</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Inside+Concentration+Camps%3A+Social+Life+at+the+Extremes-p-9780745679556</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/A+Norwegian+Tragedy%3A+Anders+Behring+Breivik+and+the+Massacre+on+Ut%C3%B8ya-p-9780745680026</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Robert+Nozick%3A+Property%2C+Justice+and+the+Minimal+State-p-9780745680453</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Roland+Barthes-p-9780745680484</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Feminism+and+Geography%3A+The+Limits+of+Geographical+Knowledge-p-9780745680491</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Nation+in+History%3A+Historiographical+Debates+about+Ethnicity+and+Nationalism-p-9780745680507</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Contemporary+Metaethics%3A+An+Introduction%2C+2nd+Edition-p-9780745680514</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Gender%2C+Work%2C+and+Economy%3A+Unpacking+the+Global+Economy-p-9780745680521</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Media+Life-p-9780745680538</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Making+Health+Policy%3A+A+Critical+Introduction-p-9780745680644</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Experimental+Philosophy%3A+An+Introduction-p-9780745680651</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Digital+Media+and+Society%3A+An+Introduction-p-9780745680668</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Pragmatism%3A+An+Introduction-p-9780745680675</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Communicating+Emotion+at+Work-p-9780745680682</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Dark+Side+of+Family+Communication-p-9780745680866</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Misguided+Search+for+the+Political-p-9780745681153</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Sites+of+Race-p-9780745681214</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Eagle+and+the+Dragon%3A+Globalization+and+European+Dreams+of+Conquest+in+China+and+America+in+the+Sixteenth+Century-p-9780745681344</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/States+of+Shock%3A+Stupidity+and+Knowledge+in+the+21st+Century-p-9780745681375</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Figures+of+History-p-9780745681405</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Most+Sublime+Hysteric%3A+Hegel+with+Lacan-p-9780745681443</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/A+Short+History+of+Migration-p-9780745681467</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Crisis+of+the+European+Union%3A+A+Response-p-9780745681535</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/World+at+Risk-p-9780745681627</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Social+Structures+of+the+Economy-p-9780745681658</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Pipeline%3A+Letters+from+Prison-p-9780745681764</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Diary+of+an+Escape-p-9780745681795</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Lost+Michelangelos-p-9780745681825</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/White+Magic%3A+The+Age+of+Paper-p-9780745681856</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Saving+the+Market+from+Capitalism%3A+Ideas+for+an+Alternative+Finance-p-9780745681887</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Intellectuals+and+Power-p-9780745681917</t>
   </si>
 </sst>
 </file>
@@ -108,7 +255,71 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -418,10 +629,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -440,27 +651,413 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>690</v>
-      </c>
-      <c r="B2" t="s">
+        <v>126.99</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>132.99</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>126.99</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>107.99</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>126.99</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>110.99</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>107.99</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>92.99</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>219</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>32.5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>183.99</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>166.99</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>183.99</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>187.99</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>191.99</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>132.99</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>187.99</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>187.99</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>187.99</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>187.99</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>225.95</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>126.99</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>22.95</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>14.95</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22.95</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>19.95</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28.95</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>24.95</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>22.95</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>26.95</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>19.95</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>22.95</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>24.95</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>14.95</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>29.99</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>24.95</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>26.95</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>28.95</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>26.95</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>24.95</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>28.95</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>22.95</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>24.95</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>26.95</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>22.95</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>22.95</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>24.95</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="No data">
-      <formula>NOT(ISERROR(SEARCH("No data",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No field">
-      <formula>NOT(ISERROR(SEARCH("No field",B2)))</formula>
+  <conditionalFormatting sqref="A2:A51">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="No field">
+      <formula>NOT(ISERROR(SEARCH("No field",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No data">
-      <formula>NOT(ISERROR(SEARCH("No data",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No field">
-      <formula>NOT(ISERROR(SEARCH("No field",A2)))</formula>
+  <conditionalFormatting sqref="B2:B51">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No field">
+      <formula>NOT(ISERROR(SEARCH("No field",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/testdata/PriceMatchWiley.xlsx
+++ b/src/testdata/PriceMatchWiley.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>url</t>
   </si>
@@ -32,49 +32,193 @@
     <t>retail_price</t>
   </si>
   <si>
-    <t>http://www.wiley.com/en-us/The+Aesthetic+Imperative%3A+Writings+on+Art-p-9780745699905</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Out+of+Our+Minds%3A+The+Power+of+Being+Creative%2C+3rd+Edition-p-9780857087447</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/A+Companion+to+Greek+Art-p-9781118273371</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/A+Short+History+of+South+East+Asia%2C+6th+Edition-p-9781119062486</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Physics%2C+Volume+2%2C+5th+Edition-p-9781119077077</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Physics%2C+Volume+1%2C+5th+Edition-p-9781119077114</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/GMAT+Official+Guide+2018+Quantitative+Review%3A+Book+%2B+Online-p-9781119402374</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/GMAT+Official+Guide+2018+Verbal+Review%3A+Book+%2B+Online-p-9781119402404</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Westworld+and+Philosophy-p-9781119437987</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Facebook+For+Dummies%2C+7th+Edition-p-9781119453833</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/iPhone+X+For+Dummies-p-9781119481591</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Smashing+WordPress%3A+Beyond+the+Blog%2C+3rd+Edition-p-9781119943679</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Smashing+Node+js%3A+JavaScript+Everywhere-p-9781119963103</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/The+Ascendancy+of+Finance-p-9781509509331</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Will+Robots+Take+Your+Job%3F%3A+A+Plea+for+Consensus-p-9781509509553</t>
+    <t>http://www.wiley.com/en-us/Be+Expert+with+Map+and+Compass%2C+3rd+Edition-p-9780470508589</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Understanding+Emotions%2C+2nd+Edition-p-9780470620533</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Nonprofit+Law+for+Colleges+and+Universities%3A+Essential+Questions+and+Answers+for+Officers%2C+Directors%2C+and+Advisors-p-9780470913437</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Smashing+Photoshop+CS5%3A+100+Professional+Techniques-p-9780470970560</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Community%3A+Seeking+Safety+in+an+Insecure+World-p-9780745626352</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Russian+Politics%3A+An+Introduction-p-9780745631370</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Community%3A+Seeking+Safety+in+an+Insecure+World-p-9780745657097</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Remembering+Katyn-p-9780745662961</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Inside+the+Gas+Chambers%3A+Eight+Months+in+the+Sonderkommando+of+Auschwitz-p-9780745683775</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Eichmann%27s+Jews%3A+The+Jewish+Administration+of+Holocaust+Vienna%2C+1938+1945-p-9780745694689</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Leadership+Divided%3A+What+Emerging+Leaders+Need+and+What+You+Might+Be+Missing-p-9780787985899</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Leadership+Divided%3A+What+Emerging+Leaders+Need+and+What+You+Might+Be+Missing-p-9780787987305</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Fishing+for+Dummies%2C+2nd+Edition-p-9781118000502</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Golf+For+Dummies%2C+4th+Edition-p-9781118027301</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Shooting+Great+Digital+Photos+For+Dummies%2C+Pocket+Edition-p-9781118037829</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Sharing+Digital+Photos+For+Dummies%2C+Pocket+Edition-p-9781118037867</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Superfoods+For+Dummies%2C+Pocket+Edition-p-9781118042816</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Living+Gluten+Free+For+Dummies%3A+Pocket+Edition-p-9781118043097</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Nonprofit+Law+for+Colleges+and+Universities%3A+Essential+Questions+and+Answers+for+Officers%2C+Directors%2C+and+Advisors-p-9781118088555</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Big+Bang+Theory+and+Philosophy%3A+Rock%2C+Paper%2C+Scissors%2C+Aristotle%2C+Locke-p-9781118236413</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Beer+For+Dummies%2C+2nd+Edition-p-9781118268438</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Arduino+For+Dummies-p-9781118446430</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/WileyPLUS+Standalone+to+accompany+Essential+Mathematics+for+Economics+and+Business+4e-p-9781118618226</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Hidden+Hand%3A+A+Brief+History+of+the+CIA-p-9781118835586</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Cold+War%3A+A+Post+Cold+War+History%2C+3rd+Edition-p-9781118848449</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Dad%27s+Guide+To+Pregnancy+For+Dummies%2C+2nd+Edition-p-9781118860458</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Foundations+of+Strategy%2C+2nd+Edition-p-9781119001270</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Football+For+Dummies%2C+5th+Edition-p-9781119022640</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Accounting+for+Managers%3A+Interpreting+Accounting+Information+for+Decision+Making%2C+5th+Edition-p-9781119097105</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/American+Business+Since+1920%3A+How+It+Worked%2C+3rd+Edition-p-9781119097266</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Global+Logistics+and+Supply+Chain+Management%2C+3rd+Edition-p-9781119123996</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Contemporary+Strategy+Analysis+Text+Only%2C+9th+Edition-p-9781119124979</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Contemporary+Strategy+Analysis%3A+Text+and+Cases+Edition%2C+9th+Edition-p-9781119126515</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Separation+Process+Principles+with+Applications+Using+Process+Simulators%2C+4th+Edition-p-9781119141297</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Drawing+the+Line%3A+How+Mason+and+Dixon+Surveyed+the+Most+Famous+Border+in+America%2C+Revised+Edition-p-9781119141822</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Real+World+Research%2C+4th+Edition-p-9781119144854</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Psychology+of+Religion+and+Spirituality%3A+From+the+Inside+Out-p-9781119175407</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Computational+Modeling+and+Visualization+of+Physical+Systems+with+Python-p-9781119179184</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Energy+and+the+Environment%2C+3rd+Edition+-p-9781119179238</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Data+Structures%3A+Abstraction+and+Design+Using+Java%2C+3rd+Edition-p-9781119186526</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Ethics+and+Technology%3A+Controversies%2C+Questions%2C+and+Strategies+for+Ethical+Computing%2C+5th+Edition-p-9781119186571</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Patterns+of+Entrepreneurship+Management%2C+5th+Edition-p-9781119228202</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Marketing+Research+Essentials%2C+9th+Edition-p-9781119228325</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Patterns+of+Entrepreneurship+Management%2C+5th+Edition-p-9781119239055</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Data+Structures%3A+Abstraction+and+Design+Using+Java%2C+3rd+Edition-p-9781119239147</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Marketing+Research+Essentials%2C+9th+Edition-p-9781119239451</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Energy+and+the+Environment%2C+3rd+Edition+-p-9781119239581</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Separation+Process+Principles+with+Applications+Using+Process+Simulators%2C+4th+Edition-p-9781119239598</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Computational+Modeling+and+Visualization+of+Physical+Systems+with+Python-p-9781119239888</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Organic+Chemistry+with+Solutions+Manual%2C+Enhanced+eText%2C+12th+Edition-p-9781119243700</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Game+of+Thrones+versus+History%3A+Written+in+Blood-p-9781119249443</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Research+Methods+For+Business%3A+A+Skill+Building+Approach%2C+7th+Edition-p-9781119266846</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Dad%27s+Guide+to+Baby%27s+First+Year+For+Dummies-p-9781119275817</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Organic+Chemistry%3A+with+Enhanced+Student+Solutions+Manual+and+Study+Guide%2C+3rd+Edition-p-9781119351603</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Advanced+Analytics+and+AI%3A+Impact%2C+Implementation%2C+and+the+Future+of+Work-p-9781119390930</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Raspberry+Pi+For+Dummies%2C+3rd+Edition-p-9781119412021</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Integrative+Advisory+Services%3A+Expanding+Your+Accounting+Services+Beyond+the+Cloud-p-9781119422020</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Leadership+Contract%3A+The+Fine+Print+to+Becoming+an+Accountable+Leader%2C+3rd+Edition-p-9781119440499</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Complete+Family+Wealth-p-9781119453185</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Ordinary+Organisations%3A+Why+Normal+Men+Carried+Out+the+Holocaust-p-9781509502936</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/I+am+Not+a+Brain%3A+Philosophy+of+Mind+for+the+21st+Century-p-9781509514786</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Che%2C+My+Brother-p-9781509517787</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Last+Interview%3A+Conversations+with+Giovanni+Tesio-p-9781509519583</t>
   </si>
 </sst>
 </file>
@@ -150,7 +294,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -212,134 +356,6 @@
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
@@ -652,10 +668,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -674,7 +690,7 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>18.989999999999998</v>
+        <v>4.99</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -682,7 +698,7 @@
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>14.99</v>
+        <v>47.5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -690,7 +706,7 @@
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>43.99</v>
+        <v>85</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -698,7 +714,7 @@
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>15.99</v>
+        <v>25.99</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -706,7 +722,7 @@
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>76</v>
+        <v>22.95</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -714,7 +730,7 @@
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>76</v>
+        <v>28.95</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -722,7 +738,7 @@
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>12.99</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
@@ -730,7 +746,7 @@
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>12.99</v>
+        <v>4.99</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -754,7 +770,7 @@
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>4.99</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -762,7 +778,7 @@
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>14.99</v>
+        <v>22.99</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
@@ -770,7 +786,7 @@
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>14.99</v>
+        <v>3.99</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>14</v>
@@ -778,7 +794,7 @@
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>4.99</v>
+        <v>3.99</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
@@ -786,27 +802,411 @@
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>64.95</v>
+        <v>3.99</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>3.99</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2.99</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>3.99</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>55.99</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>93.95</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>2.99</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>76</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>3.99</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>47.5</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>76</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>76</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>76</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>76</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>47.5</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>47.5</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>76</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>76</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>47.5</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>47.5</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>47.5</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>47.5</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>75.95</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>75.95</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>75.95</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>120.95</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>120.95</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>120.95</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>133</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>104.5</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>2.99</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>133</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>25.99</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>26.99</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>39.99</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B16">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="No data">
+  <conditionalFormatting sqref="A2:A64">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="No data">
+      <formula>NOT(ISERROR(SEARCH("No data",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="No field">
+      <formula>NOT(ISERROR(SEARCH("No field",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B64">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="No data">
       <formula>NOT(ISERROR(SEARCH("No data",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="No field">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="No field">
       <formula>NOT(ISERROR(SEARCH("No field",B2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A16">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="No data">
-      <formula>NOT(ISERROR(SEARCH("No data",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="No field">
-      <formula>NOT(ISERROR(SEARCH("No field",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/testdata/PriceMatchWiley.xlsx
+++ b/src/testdata/PriceMatchWiley.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>url</t>
   </si>
@@ -32,193 +32,247 @@
     <t>retail_price</t>
   </si>
   <si>
-    <t>http://www.wiley.com/en-us/Be+Expert+with+Map+and+Compass%2C+3rd+Edition-p-9780470508589</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Understanding+Emotions%2C+2nd+Edition-p-9780470620533</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Nonprofit+Law+for+Colleges+and+Universities%3A+Essential+Questions+and+Answers+for+Officers%2C+Directors%2C+and+Advisors-p-9780470913437</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Smashing+Photoshop+CS5%3A+100+Professional+Techniques-p-9780470970560</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Community%3A+Seeking+Safety+in+an+Insecure+World-p-9780745626352</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Russian+Politics%3A+An+Introduction-p-9780745631370</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Community%3A+Seeking+Safety+in+an+Insecure+World-p-9780745657097</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Remembering+Katyn-p-9780745662961</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Inside+the+Gas+Chambers%3A+Eight+Months+in+the+Sonderkommando+of+Auschwitz-p-9780745683775</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Eichmann%27s+Jews%3A+The+Jewish+Administration+of+Holocaust+Vienna%2C+1938+1945-p-9780745694689</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Leadership+Divided%3A+What+Emerging+Leaders+Need+and+What+You+Might+Be+Missing-p-9780787985899</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Leadership+Divided%3A+What+Emerging+Leaders+Need+and+What+You+Might+Be+Missing-p-9780787987305</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Fishing+for+Dummies%2C+2nd+Edition-p-9781118000502</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Golf+For+Dummies%2C+4th+Edition-p-9781118027301</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Shooting+Great+Digital+Photos+For+Dummies%2C+Pocket+Edition-p-9781118037829</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Sharing+Digital+Photos+For+Dummies%2C+Pocket+Edition-p-9781118037867</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Superfoods+For+Dummies%2C+Pocket+Edition-p-9781118042816</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Living+Gluten+Free+For+Dummies%3A+Pocket+Edition-p-9781118043097</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Nonprofit+Law+for+Colleges+and+Universities%3A+Essential+Questions+and+Answers+for+Officers%2C+Directors%2C+and+Advisors-p-9781118088555</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/The+Big+Bang+Theory+and+Philosophy%3A+Rock%2C+Paper%2C+Scissors%2C+Aristotle%2C+Locke-p-9781118236413</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Beer+For+Dummies%2C+2nd+Edition-p-9781118268438</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Arduino+For+Dummies-p-9781118446430</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/WileyPLUS+Standalone+to+accompany+Essential+Mathematics+for+Economics+and+Business+4e-p-9781118618226</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/The+Hidden+Hand%3A+A+Brief+History+of+the+CIA-p-9781118835586</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/The+Cold+War%3A+A+Post+Cold+War+History%2C+3rd+Edition-p-9781118848449</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Dad%27s+Guide+To+Pregnancy+For+Dummies%2C+2nd+Edition-p-9781118860458</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Foundations+of+Strategy%2C+2nd+Edition-p-9781119001270</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Football+For+Dummies%2C+5th+Edition-p-9781119022640</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Accounting+for+Managers%3A+Interpreting+Accounting+Information+for+Decision+Making%2C+5th+Edition-p-9781119097105</t>
-  </si>
-  <si>
     <t>http://www.wiley.com/en-us/American+Business+Since+1920%3A+How+It+Worked%2C+3rd+Edition-p-9781119097266</t>
   </si>
   <si>
-    <t>http://www.wiley.com/en-us/Global+Logistics+and+Supply+Chain+Management%2C+3rd+Edition-p-9781119123996</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Contemporary+Strategy+Analysis+Text+Only%2C+9th+Edition-p-9781119124979</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Contemporary+Strategy+Analysis%3A+Text+and+Cases+Edition%2C+9th+Edition-p-9781119126515</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Separation+Process+Principles+with+Applications+Using+Process+Simulators%2C+4th+Edition-p-9781119141297</t>
-  </si>
-  <si>
     <t>http://www.wiley.com/en-us/Drawing+the+Line%3A+How+Mason+and+Dixon+Surveyed+the+Most+Famous+Border+in+America%2C+Revised+Edition-p-9781119141822</t>
   </si>
   <si>
-    <t>http://www.wiley.com/en-us/Real+World+Research%2C+4th+Edition-p-9781119144854</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/The+Psychology+of+Religion+and+Spirituality%3A+From+the+Inside+Out-p-9781119175407</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Computational+Modeling+and+Visualization+of+Physical+Systems+with+Python-p-9781119179184</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Energy+and+the+Environment%2C+3rd+Edition+-p-9781119179238</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Data+Structures%3A+Abstraction+and+Design+Using+Java%2C+3rd+Edition-p-9781119186526</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Ethics+and+Technology%3A+Controversies%2C+Questions%2C+and+Strategies+for+Ethical+Computing%2C+5th+Edition-p-9781119186571</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Patterns+of+Entrepreneurship+Management%2C+5th+Edition-p-9781119228202</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Marketing+Research+Essentials%2C+9th+Edition-p-9781119228325</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Patterns+of+Entrepreneurship+Management%2C+5th+Edition-p-9781119239055</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Data+Structures%3A+Abstraction+and+Design+Using+Java%2C+3rd+Edition-p-9781119239147</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Marketing+Research+Essentials%2C+9th+Edition-p-9781119239451</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Energy+and+the+Environment%2C+3rd+Edition+-p-9781119239581</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Separation+Process+Principles+with+Applications+Using+Process+Simulators%2C+4th+Edition-p-9781119239598</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Computational+Modeling+and+Visualization+of+Physical+Systems+with+Python-p-9781119239888</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Organic+Chemistry+with+Solutions+Manual%2C+Enhanced+eText%2C+12th+Edition-p-9781119243700</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Game+of+Thrones+versus+History%3A+Written+in+Blood-p-9781119249443</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Research+Methods+For+Business%3A+A+Skill+Building+Approach%2C+7th+Edition-p-9781119266846</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Dad%27s+Guide+to+Baby%27s+First+Year+For+Dummies-p-9781119275817</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Organic+Chemistry%3A+with+Enhanced+Student+Solutions+Manual+and+Study+Guide%2C+3rd+Edition-p-9781119351603</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Advanced+Analytics+and+AI%3A+Impact%2C+Implementation%2C+and+the+Future+of+Work-p-9781119390930</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Raspberry+Pi+For+Dummies%2C+3rd+Edition-p-9781119412021</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Integrative+Advisory+Services%3A+Expanding+Your+Accounting+Services+Beyond+the+Cloud-p-9781119422020</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/The+Leadership+Contract%3A+The+Fine+Print+to+Becoming+an+Accountable+Leader%2C+3rd+Edition-p-9781119440499</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Complete+Family+Wealth-p-9781119453185</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Ordinary+Organisations%3A+Why+Normal+Men+Carried+Out+the+Holocaust-p-9781509502936</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/I+am+Not+a+Brain%3A+Philosophy+of+Mind+for+the+21st+Century-p-9781509514786</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/Che%2C+My+Brother-p-9781509517787</t>
-  </si>
-  <si>
-    <t>http://www.wiley.com/en-us/The+Last+Interview%3A+Conversations+with+Giovanni+Tesio-p-9781509519583</t>
+    <t>http://www.wiley.com/en-us/Westworld+and+Philosophy-p-9781119437987</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Smashing+WordPress%3A+Beyond+the+Blog%2C+3rd+Edition-p-9781119943679</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/U+S+History+For+Dummies%2C+3rd+Edition-p-9781118889039</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/A+Respectable+Army%3A+The+Military+Origins+of+the+Republic%2C+1763+1789%2C+3rd+Edition-p-9781118923900</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Losing+Eden%3A+An+Environmental+History+of+the+American+West-p-9781118934319</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Deadlock+and+Disillusionment%3A+American+Politics+since+1968-p-9781118934371</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Self+Assembly%3A+From+Surfactants+to+Nanoparticles-p-9781119001362</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Ultimate+Star+Wars+and+Philosophy%3A+You+Must+Unlearn+What+You+Have+Learned-p-9781119038085</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/A+Companion+to+African+History-p-9781119063506</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Black+Hawk+and+the+Warrior%27s+Path%2C+2nd+Edition-p-9781119103417</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/African+Americans+in+the+Colonial+Era%3A+From+African+Origins+through+the+American+Revolution%2C+4th+Edition-p-9781119133896</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Midwifery+Emergencies+at+a+Glance-p-9781119138013</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Midwifery+Emergencies+at+a+Glance-p-9781119138044</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/American+Constitutional+History%3A+A+Brief+Introduction-p-9781119141778</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Stevens%27+Handbook+of+Experimental+Psychology+and+Cognitive+Neuroscience%2C+4th+Edition-p-9781119170167</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Aesthetics+and+the+Philosophy+of+Art%3A+The+Analytic+Tradition%2C+An+Anthology%2C+2nd+Edition-p-9781119222446</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Onychomycosis%3A+Diagnosis+and+Effective+Management-p-9781119226499</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Onychomycosis%3A+Diagnosis+and+Effective+Management-p-9781119226536</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Fundamentals+of+Children%27s+Applied+Pathophysiology%3A+An+Essential+Guide+for+Nursing+and+Healthcare+Students-p-9781119232650</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Fundamentals+of+Children%27s+Applied+Pathophysiology%3A+An+Essential+Guide+for+Nursing+and+Healthcare+Students-p-9781119232674</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Essential+Physiology+for+Dental+Students-p-9781119271710</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Essential+Physiology+for+Dental+Students-p-9781119271758</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Wonder+Woman+and+Philosophy%3A+The+Amazonian+Mystique-p-9781119280743</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/True+Detective+and+Philosophy%3A+A+Deeper+Kind+of+Darkness-p-9781119280828</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Alien+and+Philosophy%3A+I+Infest%2C+Therefore+I+Am-p-9781119280842</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/5G+Networks%3A+Fundamental+Requirements%2C+Enabling+Technologies%2C+and+Operations+Management-p-9781119332732</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Treatment+of+Cerebral+Palsy+and+Motor+Delay-p-9781119373599</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/U+S+Constitution+For+Dummies%2C+2nd+Edition-p-9781119387367</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/INSPIRED%3A+How+to+Create+Tech+Products+Customers+Love%2C+2nd+Edition-p-9781119387565</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/An+Illustrated+Brief+History+of+Western+Philosophy%2C+20th+Anniversary+Edition-p-9781119452799</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/An+Illustrated+Brief+History+of+Western+Philosophy%2C+20th+Anniversary+Edition-p-9781119452805</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Major+Incident+Medical+Management+and+Support%3A+The+Practical+Approach+in+the+Hospital%2C+2nd+Edition-p-9781119501015</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/British+Poultry+Standards+7e-p-9781119509141</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/British+Poultry+Standards+7e-p-9781119509196</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Parliamentarians+at+Law%3A+Select+Legal+Proceedings+of+the+Long+Fifteenth+Century+Relating+to+Parliament-p-9781405180139</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Peerage+Creations%3A+Chronological+Lists+of+Creations+in+the+Peerages+of+England+and+Great+Britain+1649+1800+and+of+Ireland+1603+1898-p-9781405180436</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Public+Life+and+Public+Lives%3A+Essays+in+Honour+of+Richard+W+Davis-p-9781405181600</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+House+of+Lords+in+the+Age+of+George+III+%281760+1811%29-p-9781405192255</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/British+Politics+in+the+Age+of+Holmes%3A+Geoffrey+Holmes%27s+%22%22British+Politics+in+the+Age+of+Anne%22%22+40+Years+On+-p-9781405193344</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+State+Trial+of+Doctor+Henry+Sacheverell-p-9781444332230</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Speakers+and+the+Speakership%3A+Presiding+Officers+and+the+Management+of+Business+from+the+Middle+Ages+to+the+Twenty+first+Century-p-9781444332896</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/A+Century+of+Constitutional+Reform-p-9781444338942</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/How+Food+Made+History-p-9781444344653</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Knowledge+and+Power%3A+The+Parliamentary+Representation+of+Universities+in+Britain+and+the+Empire-p-9781444350203</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Ideas+of+the+Liberal+Party%3A+Perceptions%2C+Agendas+and+Liberal+Politics+in+the+House+of+Commons%2C+1832+1852-p-9781444350210</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Faction+Displayed%3A+Reconsidering+the+Impeachment+of+Dr+Henry+Sacheverell-p-9781444361872</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/An+Invitation+to+Social+Theory%2C+2nd+Edition-p-9781509506439</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Uranium-p-9781509510719</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Responsibility+to+Protect%2C+From+Promise+to+Practice-p-9781509512478</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Latina+o+Studies-p-9781509512607</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/In+Defense+of+Universal+Human+Rights-p-9781509513574</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Rome-p-9781509514991</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/What+is+Power%3F-p-9781509516131</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Visual+Culture%2C+3rd+Edition-p-9781509518814</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/H+L+A+Hart-p-9781509520763</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Syria%3A+Hot+Spots+in+Global+Politics-p-9781509522446</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Improvised+Lives%3A+Rhythms+of+Endurance+in+an+Urban+South-p-9781509523399</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Social+Deviance%2C+2nd+Edition-p-9781509523542</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/One+Dimensional+Queer-p-9781509523597</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Colorblind+Racism-p-9781509524457</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/An+Introduction+to+the+Philosophy+of+Time-p-9781509524556</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/China%27s+Dream%2C+The+Culture+of+Chinese+Communism+and+the+Secret+Sources+of+its+Power-p-9781509524600</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Should+we+abolish+household+debts%3F-p-9781509525430</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Is+Just+War+Possible%3F-p-9781509526536</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Are+Chief+Executives+Overpaid%3F-p-9781509527830</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Why+Journalism+Still+Matters-p-9781509528080</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Sugar+Daddy+Capitalism+The+Dark+Side+of+the+New+Economy-p-9781509528233</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Down+to+Earth%2C+Politics+in+the+New+Climatic+Regime-p-9781509530595</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Born+Liquid-p-9781509530700</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Left+Case+Against+the+EU-p-9781509531080</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Eruptions+of+Memory%2C+The+Critique+of+Memory+in+Chile%2C+1990+2015-p-9781509532308</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Will+China+Save+the+Planet%3F-p-9781509532667</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Poetics+of+Digital+Media-p-9781509532681</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Transitory+Museum-p-9781509533077</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Animal+Advocacy+and+Environmentalism%3A+Understanding+and+Bridging+the+Divide-p-9781509533756</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/The+Globalization+Backlash-p-9781509533794</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Religion+and+International+Security-p-9781509534319</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/YouTube+Videos+selber+machen+fur+Dummies+Junior%2C+2nd+Edition-p-9783527714957</t>
+  </si>
+  <si>
+    <t>http://www.wiley.com/en-us/Thermodynamik%26nbsp%3Bf%26uuml%3Br+Dummies%2C+2+Auflage-p-9783527811915</t>
   </si>
 </sst>
 </file>
@@ -294,7 +348,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -379,6 +433,14 @@
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
           <bgColor theme="7" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
@@ -387,7 +449,31 @@
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
           <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
@@ -668,9 +754,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -690,58 +776,58 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>4.99</v>
+        <v>3.99</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>47.5</v>
+        <v>4.99</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>85</v>
+        <v>4.99</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>25.99</v>
+        <v>4.99</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>22.95</v>
+        <v>175</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>28.95</v>
+        <v>4.99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>18.989999999999998</v>
+        <v>36.99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -749,7 +835,7 @@
         <v>4.99</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -757,7 +843,7 @@
         <v>4.99</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -765,111 +851,111 @@
         <v>4.99</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>35</v>
+        <v>38.99</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>22.99</v>
+        <v>31.99</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>3.99</v>
+        <v>4.99</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>3.99</v>
+        <v>4.99</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>3.99</v>
+        <v>1250</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>3.99</v>
+        <v>59.95</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>2.99</v>
+        <v>100.99</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>3.99</v>
+        <v>125</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>55.99</v>
+        <v>59.99</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>4.99</v>
+        <v>47.99</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>4.99</v>
+        <v>85</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>4.99</v>
+        <v>68.989999999999995</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>93.95</v>
+        <v>4.99</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -877,7 +963,7 @@
         <v>4.99</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -885,23 +971,23 @@
         <v>4.99</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>2.99</v>
+        <v>145</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>76</v>
+        <v>57.99</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -909,15 +995,15 @@
         <v>3.99</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>47.5</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -925,60 +1011,60 @@
         <v>4.99</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>76</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>76</v>
+        <v>31.99</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>76</v>
+        <v>71.989999999999995</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>4.99</v>
+        <v>80.989999999999995</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>47.5</v>
+        <v>14.99</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>47.5</v>
+        <v>49.95</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>38</v>
@@ -986,7 +1072,7 @@
     </row>
     <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>76</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>39</v>
@@ -994,7 +1080,7 @@
     </row>
     <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>76</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>40</v>
@@ -1002,7 +1088,7 @@
     </row>
     <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>47.5</v>
+        <v>49.95</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>41</v>
@@ -1010,7 +1096,7 @@
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>47.5</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>42</v>
@@ -1018,7 +1104,7 @@
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>47.5</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>43</v>
@@ -1026,7 +1112,7 @@
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>47.5</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>44</v>
@@ -1034,7 +1120,7 @@
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>75.95</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>45</v>
@@ -1042,7 +1128,7 @@
     </row>
     <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>75.95</v>
+        <v>4.99</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>46</v>
@@ -1050,7 +1136,7 @@
     </row>
     <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>75.95</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>47</v>
@@ -1058,7 +1144,7 @@
     </row>
     <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>120.95</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>48</v>
@@ -1066,7 +1152,7 @@
     </row>
     <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>120.95</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>49</v>
@@ -1074,7 +1160,7 @@
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>120.95</v>
+        <v>59.99</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>50</v>
@@ -1082,7 +1168,7 @@
     </row>
     <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>133</v>
+        <v>12.99</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>51</v>
@@ -1090,7 +1176,7 @@
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>4.99</v>
+        <v>55.99</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>52</v>
@@ -1098,7 +1184,7 @@
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>104.5</v>
+        <v>55.99</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>53</v>
@@ -1106,7 +1192,7 @@
     </row>
     <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>2.99</v>
+        <v>51.99</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>54</v>
@@ -1114,7 +1200,7 @@
     </row>
     <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>133</v>
+        <v>4.99</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>55</v>
@@ -1122,7 +1208,7 @@
     </row>
     <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>19.989999999999998</v>
+        <v>39.99</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>56</v>
@@ -1130,7 +1216,7 @@
     </row>
     <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>4.99</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>57</v>
@@ -1138,7 +1224,7 @@
     </row>
     <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>25.99</v>
+        <v>55.99</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>58</v>
@@ -1146,7 +1232,7 @@
     </row>
     <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>16.989999999999998</v>
+        <v>59.99</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>59</v>
@@ -1154,7 +1240,7 @@
     </row>
     <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>26.99</v>
+        <v>47.99</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>60</v>
@@ -1162,7 +1248,7 @@
     </row>
     <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>4.99</v>
+        <v>55.99</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>61</v>
@@ -1170,7 +1256,7 @@
     </row>
     <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>16.989999999999998</v>
+        <v>47.99</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>62</v>
@@ -1178,7 +1264,7 @@
     </row>
     <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>4.99</v>
+        <v>51.99</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>63</v>
@@ -1186,27 +1272,171 @@
     </row>
     <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>39.99</v>
+        <v>55.99</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>64</v>
       </c>
     </row>
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>55.99</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>36.99</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>36.99</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>36.99</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>51.99</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>51.99</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>39.99</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>36.99</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>47.99</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>51.99</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>36.99</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>51.99</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>36.99</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>51.99</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>47.99</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>51.99</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A64">
+  <conditionalFormatting sqref="B2:B82">
     <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="No data">
+      <formula>NOT(ISERROR(SEARCH("No data",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="No field">
+      <formula>NOT(ISERROR(SEARCH("No field",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A82">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="No data">
       <formula>NOT(ISERROR(SEARCH("No data",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="No field">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="No field">
       <formula>NOT(ISERROR(SEARCH("No field",A2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B64">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="No data">
-      <formula>NOT(ISERROR(SEARCH("No data",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="No field">
-      <formula>NOT(ISERROR(SEARCH("No field",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
